--- a/tests/data.gui/stable/spectrophotometry/dsl.3/kev.constants.data.xlsx
+++ b/tests/data.gui/stable/spectrophotometry/dsl.3/kev.constants.data.xlsx
@@ -251,16 +251,16 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33221233129501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0500521534968924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37545678377151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.224859559792071</t>
+    <t xml:space="preserve">4.3321142578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0500355046429244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37466552734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225001108736713</t>
   </si>
   <si>
     <t xml:space="preserve">Adj. R^2</t>
@@ -764,12 +764,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.740919137027453</v>
+        <v>0.740739707949793</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.740919137027453</v>
+        <v>0.740739707949793</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.999842044335903</v>
+        <v>0.99984204419463</v>
       </c>
     </row>
   </sheetData>
@@ -844,16 +844,16 @@
         <v>200</v>
       </c>
       <c r="C2" t="n">
-        <v>6.92174319352874</v>
+        <v>6.92335166639162</v>
       </c>
       <c r="D2" t="n">
-        <v>3241.77065205401</v>
+        <v>3241.77493862815</v>
       </c>
       <c r="E2" t="n">
-        <v>4810.07287563224</v>
+        <v>4810.10850140424</v>
       </c>
       <c r="F2" t="n">
-        <v>4784.48223182565</v>
+        <v>4784.3387312375</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>300</v>
       </c>
       <c r="C3" t="n">
-        <v>14.5560701290438</v>
+        <v>14.5869323319517</v>
       </c>
       <c r="D3" t="n">
-        <v>7635.87014621899</v>
+        <v>7635.87417879795</v>
       </c>
       <c r="E3" t="n">
-        <v>6297.39630669605</v>
+        <v>6297.31866792107</v>
       </c>
       <c r="F3" t="n">
-        <v>4232.42150409292</v>
+        <v>4229.18583923081</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -890,16 +890,16 @@
         <v>200</v>
       </c>
       <c r="C4" t="n">
-        <v>2.18811427811845</v>
+        <v>2.19081267294341</v>
       </c>
       <c r="D4" t="n">
-        <v>15.5429036014627</v>
+        <v>15.5464922272782</v>
       </c>
       <c r="E4" t="n">
-        <v>12.5548913967064</v>
+        <v>12.5561471931515</v>
       </c>
       <c r="F4" t="n">
-        <v>131.478092353871</v>
+        <v>131.739463051048</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -913,16 +913,16 @@
         <v>300</v>
       </c>
       <c r="C5" t="n">
-        <v>2.18295624471658</v>
+        <v>2.1846099494123</v>
       </c>
       <c r="D5" t="n">
-        <v>15.5062643743712</v>
+        <v>15.5024763265327</v>
       </c>
       <c r="E5" t="n">
-        <v>12.5252957993336</v>
+        <v>12.5205976865155</v>
       </c>
       <c r="F5" t="n">
-        <v>131.168159550655</v>
+        <v>131.366476589205</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1337,138 +1337,138 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.91922727314749e-08</v>
+        <v>0.0000000992090565181129</v>
       </c>
       <c r="B2" t="n">
-        <v>0.000353446611903322</v>
+        <v>0.000353446654489197</v>
       </c>
       <c r="C2" t="n">
-        <v>7.5337984131284e-07</v>
+        <v>0.000000753337267674679</v>
       </c>
       <c r="D2" t="n">
-        <v>8.25536517321998e-12</v>
+        <v>0.0000000000082431279606603</v>
       </c>
       <c r="E2" t="n">
-        <v>1.52588624774593e-07</v>
+        <v>0.000000152562810448648</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.000105333040224324</v>
+        <v>0.000105346173555645</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000108182220832239</v>
+        <v>0.000108191110679258</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00024486845629509</v>
+        <v>0.000244863809944392</v>
       </c>
       <c r="D3" t="n">
-        <v>2.84932451856555e-06</v>
+        <v>0.00000284508101508837</v>
       </c>
       <c r="E3" t="n">
-        <v>1.43692923437208e-10</v>
+        <v>0.000000000143675009480694</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.000358863895185699</v>
+        <v>0.000358889149835025</v>
       </c>
       <c r="B4" t="n">
-        <v>3.9124914329389e-05</v>
+        <v>0.0000391323448262809</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000301714024351818</v>
+        <v>0.00030172441801032</v>
       </c>
       <c r="D4" t="n">
-        <v>1.19610613200632e-05</v>
+        <v>0.0000119432371646621</v>
       </c>
       <c r="E4" t="n">
-        <v>4.21764704875923e-11</v>
+        <v>0.000000000042173502574039</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.000668387356554218</v>
+        <v>0.000668426237493383</v>
       </c>
       <c r="B5" t="n">
-        <v>2.1694715995452e-05</v>
+        <v>0.0000217002853363244</v>
       </c>
       <c r="C5" t="n">
-        <v>0.000311597903157288</v>
+        <v>0.000311625645409508</v>
       </c>
       <c r="D5" t="n">
-        <v>2.30073820908267e-05</v>
+        <v>0.0000229740704910569</v>
       </c>
       <c r="E5" t="n">
-        <v>2.26449712669488e-11</v>
+        <v>0.00000000002264365405691</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0013265284914767</v>
+        <v>0.00132659238798426</v>
       </c>
       <c r="B6" t="n">
-        <v>1.05662358057948e-05</v>
+        <v>0.0000105700849577871</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000301196008456199</v>
+        <v>0.000301252206660317</v>
       </c>
       <c r="D6" t="n">
-        <v>4.41377557391445e-05</v>
+        <v>0.0000440777083830248</v>
       </c>
       <c r="E6" t="n">
-        <v>1.14099414988916e-11</v>
+        <v>0.0000000000114093919288656</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.00263114097144081</v>
+        <v>0.00263123903634047</v>
       </c>
       <c r="B7" t="n">
-        <v>4.78545548604535e-06</v>
+        <v>0.00000478800252486154</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000270570054716234</v>
+        <v>0.000270663025538479</v>
       </c>
       <c r="D7" t="n">
-        <v>7.86444897977227e-05</v>
+        <v>0.0000785489719366616</v>
       </c>
       <c r="E7" t="n">
-        <v>5.75249013589486e-12</v>
+        <v>0.00000000000575227574360278</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.00661725897445892</v>
+        <v>0.00661739630317633</v>
       </c>
       <c r="B8" t="n">
-        <v>1.43317099931708e-06</v>
+        <v>0.00000143441341301523</v>
       </c>
       <c r="C8" t="n">
-        <v>0.000203792630173007</v>
+        <v>0.000203927474063071</v>
       </c>
       <c r="D8" t="n">
-        <v>0.000148974198827707</v>
+        <v>0.000148838112523943</v>
       </c>
       <c r="E8" t="n">
-        <v>2.28729335556943e-12</v>
+        <v>0.00000000000228724588809908</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0133758304235167</v>
+        <v>0.0133759662765017</v>
       </c>
       <c r="B9" t="n">
-        <v>4.96251587698365e-07</v>
+        <v>0.000000496827364661657</v>
       </c>
       <c r="C9" t="n">
-        <v>0.000142637919209736</v>
+        <v>0.000142772620640885</v>
       </c>
       <c r="D9" t="n">
-        <v>0.000210765829202615</v>
+        <v>0.000210630551994502</v>
       </c>
       <c r="E9" t="n">
-        <v>1.13156432199914e-12</v>
+        <v>0.00000000000113155282926749</v>
       </c>
     </row>
   </sheetData>
@@ -1525,28 +1525,28 @@
         <v>200</v>
       </c>
       <c r="C2" t="n">
-        <v>1.14941739155695</v>
+        <v>1.14941886695781</v>
       </c>
       <c r="D2" t="n">
-        <v>1.54289869907694</v>
+        <v>1.54289390498235</v>
       </c>
       <c r="E2" t="n">
-        <v>1.63781189285319</v>
+        <v>1.63781065083709</v>
       </c>
       <c r="F2" t="n">
-        <v>1.68384273214971</v>
+        <v>1.68384409257399</v>
       </c>
       <c r="G2" t="n">
-        <v>1.70338626130527</v>
+        <v>1.70338878985998</v>
       </c>
       <c r="H2" t="n">
-        <v>1.71146027647874</v>
+        <v>1.71146202865199</v>
       </c>
       <c r="I2" t="n">
-        <v>1.7434707888918</v>
+        <v>1.74346983026997</v>
       </c>
       <c r="J2" t="n">
-        <v>1.78869694814809</v>
+        <v>1.78869682511132</v>
       </c>
     </row>
     <row r="3">
@@ -1557,28 +1557,28 @@
         <v>300</v>
       </c>
       <c r="C3" t="n">
-        <v>2.70361824233491</v>
+        <v>2.70361966945306</v>
       </c>
       <c r="D3" t="n">
-        <v>2.38169188018855</v>
+        <v>2.38168820371788</v>
       </c>
       <c r="E3" t="n">
-        <v>2.25461344910061</v>
+        <v>2.2546097327535</v>
       </c>
       <c r="F3" t="n">
-        <v>2.23501955066678</v>
+        <v>2.23501854459792</v>
       </c>
       <c r="G3" t="n">
-        <v>2.1835516640739</v>
+        <v>2.18355671706614</v>
       </c>
       <c r="H3" t="n">
-        <v>2.1115836822525</v>
+        <v>2.11159181386002</v>
       </c>
       <c r="I3" t="n">
-        <v>2.02114935259915</v>
+        <v>2.02114083957377</v>
       </c>
       <c r="J3" t="n">
-        <v>1.98878617183375</v>
+        <v>1.98878846322931</v>
       </c>
     </row>
     <row r="4">
@@ -1589,28 +1589,28 @@
         <v>200</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000417391556946756</v>
+        <v>0.000418866957811126</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.000101300923063707</v>
+        <v>-0.000106095017651242</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.00418810714681084</v>
+        <v>-0.00418934916291391</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.00115726785028913</v>
+        <v>-0.00115590742601213</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00238626130526742</v>
+        <v>0.00238878985997548</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00746027647874192</v>
+        <v>0.00746202865199441</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.00652921110820381</v>
+        <v>-0.00653016973002862</v>
       </c>
       <c r="J4" t="n">
-        <v>0.00169694814809085</v>
+        <v>0.00169682511131697</v>
       </c>
     </row>
     <row r="5">
@@ -1621,28 +1621,28 @@
         <v>300</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00161824233491226</v>
+        <v>0.00161966945306347</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.00730811981144797</v>
+        <v>-0.00731179628211853</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00261344910061245</v>
+        <v>0.00260973275350151</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00701955066677984</v>
+        <v>0.00701854459791829</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.00244833592609517</v>
+        <v>-0.00244328293385809</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.00241631774749651</v>
+        <v>-0.00240818613997584</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00114935259914928</v>
+        <v>0.00114083957377176</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.000213828166249597</v>
+        <v>-0.000211536770685861</v>
       </c>
     </row>
   </sheetData>
@@ -1699,28 +1699,28 @@
         <v>200</v>
       </c>
       <c r="C2" t="n">
-        <v>1.14941739155695</v>
+        <v>1.14941886695781</v>
       </c>
       <c r="D2" t="n">
-        <v>1.54289869907694</v>
+        <v>1.54289390498235</v>
       </c>
       <c r="E2" t="n">
-        <v>1.63781189285319</v>
+        <v>1.63781065083709</v>
       </c>
       <c r="F2" t="n">
-        <v>1.68384273214971</v>
+        <v>1.68384409257399</v>
       </c>
       <c r="G2" t="n">
-        <v>1.70338626130527</v>
+        <v>1.70338878985998</v>
       </c>
       <c r="H2" t="n">
-        <v>1.71146027647874</v>
+        <v>1.71146202865199</v>
       </c>
       <c r="I2" t="n">
-        <v>1.7434707888918</v>
+        <v>1.74346983026997</v>
       </c>
       <c r="J2" t="n">
-        <v>1.78869694814809</v>
+        <v>1.78869682511132</v>
       </c>
     </row>
     <row r="3">
@@ -1731,28 +1731,28 @@
         <v>300</v>
       </c>
       <c r="C3" t="n">
-        <v>2.70361824233491</v>
+        <v>2.70361966945306</v>
       </c>
       <c r="D3" t="n">
-        <v>2.38169188018855</v>
+        <v>2.38168820371788</v>
       </c>
       <c r="E3" t="n">
-        <v>2.25461344910061</v>
+        <v>2.2546097327535</v>
       </c>
       <c r="F3" t="n">
-        <v>2.23501955066678</v>
+        <v>2.23501854459792</v>
       </c>
       <c r="G3" t="n">
-        <v>2.1835516640739</v>
+        <v>2.18355671706614</v>
       </c>
       <c r="H3" t="n">
-        <v>2.1115836822525</v>
+        <v>2.11159181386002</v>
       </c>
       <c r="I3" t="n">
-        <v>2.02114935259915</v>
+        <v>2.02114083957377</v>
       </c>
       <c r="J3" t="n">
-        <v>1.98878617183375</v>
+        <v>1.98878846322931</v>
       </c>
     </row>
     <row r="4">
@@ -1763,28 +1763,28 @@
         <v>200</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000363265062616846</v>
+        <v>0.000364549136476176</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.56519268073282e-05</v>
+        <v>-0.0000687589226514855</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.00255061336590185</v>
+        <v>-0.00255136977034952</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.000686805845868922</v>
+        <v>-0.000685998472410757</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00140285791021013</v>
+        <v>0.00140434442091445</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00437809652508329</v>
+        <v>0.00437912479577137</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.00373097777611647</v>
+        <v>-0.00373152556001636</v>
       </c>
       <c r="J4" t="n">
-        <v>0.000949607245713961</v>
+        <v>0.000949538394693323</v>
       </c>
     </row>
     <row r="5">
@@ -1795,28 +1795,28 @@
         <v>300</v>
       </c>
       <c r="C5" t="n">
-        <v>0.000598905379316157</v>
+        <v>0.000599433550356575</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.00305907066197068</v>
+        <v>-0.00306060957811575</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00116050137682613</v>
+        <v>0.00115885113388167</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00315060622386887</v>
+        <v>0.00315015466692921</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.00112000728549642</v>
+        <v>-0.00111769576114277</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.00114300744914688</v>
+        <v>-0.00113916089875868</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000568986435222415</v>
+        <v>0.000564772066223642</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.000107505362619204</v>
+        <v>-0.000106353328650508</v>
       </c>
     </row>
   </sheetData>
